--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eccbed7c0510dac9/AGENT/travel-agent-backend/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E26EFFD65001E8D9830315FC6299C851502FB829" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="3900" yWindow="3900" windowWidth="23040" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1882,8 +1888,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1959,6 +1965,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2005,7 +2019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2037,9 +2051,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2071,6 +2103,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2246,14 +2296,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2311,7 +2363,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2340,7 +2392,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2369,7 +2421,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2398,7 +2450,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2427,7 +2479,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2456,7 +2508,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2485,7 +2537,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +2566,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2543,7 +2595,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2572,7 +2624,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2601,7 +2653,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2630,7 +2682,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2659,7 +2711,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2688,7 +2740,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2717,7 +2769,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2746,7 +2798,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2775,7 +2827,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2804,7 +2856,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2833,7 +2885,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2862,7 +2914,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2891,7 +2943,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2920,7 +2972,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2949,7 +3001,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2978,7 +3030,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3007,7 +3059,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3036,7 +3088,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3065,7 +3117,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3094,7 +3146,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3123,7 +3175,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3152,7 +3204,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3181,7 +3233,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3210,7 +3262,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -3239,7 +3291,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -3268,7 +3320,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -3297,7 +3349,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3326,7 +3378,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3355,7 +3407,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3384,7 +3436,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3413,7 +3465,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3442,7 +3494,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -3471,7 +3523,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3500,7 +3552,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3529,7 +3581,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3558,7 +3610,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3587,7 +3639,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3616,7 +3668,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3645,7 +3697,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3674,7 +3726,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3703,7 +3755,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3732,7 +3784,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -3761,7 +3813,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -3790,7 +3842,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -3819,7 +3871,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3848,7 +3900,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3877,7 +3929,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -3906,7 +3958,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3935,7 +3987,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3964,7 +4016,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3993,7 +4045,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4022,7 +4074,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4051,7 +4103,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4080,7 +4132,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4109,7 +4161,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4138,7 +4190,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4167,7 +4219,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4196,7 +4248,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4225,7 +4277,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4254,7 +4306,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4283,7 +4335,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4312,7 +4364,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4341,7 +4393,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4370,7 +4422,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -4399,7 +4451,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -4428,7 +4480,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -4457,7 +4509,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -4486,7 +4538,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -4515,7 +4567,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -4544,7 +4596,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -4573,7 +4625,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -4602,7 +4654,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -4631,7 +4683,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -4660,7 +4712,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -4689,7 +4741,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -4718,7 +4770,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -4747,7 +4799,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -4776,7 +4828,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -4805,7 +4857,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -4834,7 +4886,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -4863,7 +4915,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -4892,7 +4944,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -4921,7 +4973,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -4950,7 +5002,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -4979,7 +5031,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -5008,7 +5060,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -5037,7 +5089,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -5066,7 +5118,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -5095,7 +5147,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -5124,7 +5176,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -5153,7 +5205,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -5182,7 +5234,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -5211,7 +5263,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -5240,7 +5292,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -5269,7 +5321,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -5298,7 +5350,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -5327,7 +5379,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -5356,7 +5408,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>35</v>
       </c>
@@ -5385,7 +5437,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -5414,7 +5466,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -5443,7 +5495,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -5472,7 +5524,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -5501,7 +5553,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -5530,7 +5582,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -5559,7 +5611,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -5588,7 +5640,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -5617,7 +5669,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -5646,7 +5698,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -5675,7 +5727,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -5704,7 +5756,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -5733,7 +5785,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -5762,7 +5814,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -5791,7 +5843,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -5820,7 +5872,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -5849,7 +5901,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -5878,7 +5930,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -5907,7 +5959,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -5936,7 +5988,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -5965,7 +6017,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -5994,7 +6046,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>124</v>
       </c>
@@ -6023,7 +6075,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>125</v>
       </c>
@@ -6052,7 +6104,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -6081,7 +6133,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -6110,7 +6162,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>128</v>
       </c>
@@ -6139,7 +6191,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>129</v>
       </c>
@@ -6168,7 +6220,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>130</v>
       </c>
@@ -6197,7 +6249,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>131</v>
       </c>
@@ -6226,7 +6278,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -6255,7 +6307,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -6284,7 +6336,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -6313,7 +6365,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -6342,7 +6394,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -6371,7 +6423,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>137</v>
       </c>
@@ -6400,7 +6452,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -6429,7 +6481,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -6458,7 +6510,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>140</v>
       </c>
@@ -6487,7 +6539,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>141</v>
       </c>
@@ -6516,7 +6568,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -6545,7 +6597,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>143</v>
       </c>
@@ -6574,7 +6626,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>144</v>
       </c>
@@ -6603,7 +6655,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>145</v>
       </c>
@@ -6632,7 +6684,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>146</v>
       </c>
@@ -6661,7 +6713,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -6690,7 +6742,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>148</v>
       </c>
@@ -6719,7 +6771,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -6748,7 +6800,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>150</v>
       </c>
@@ -6777,7 +6829,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>151</v>
       </c>
@@ -6806,7 +6858,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -6835,7 +6887,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>71</v>
       </c>
@@ -6864,7 +6916,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>71</v>
       </c>
@@ -6893,7 +6945,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -6922,7 +6974,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>154</v>
       </c>
@@ -6951,7 +7003,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -6980,7 +7032,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -7009,7 +7061,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>155</v>
       </c>
@@ -7038,7 +7090,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>155</v>
       </c>
@@ -7067,7 +7119,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>111</v>
       </c>
@@ -7096,7 +7148,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>111</v>
       </c>
@@ -7125,7 +7177,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>156</v>
       </c>
@@ -7154,7 +7206,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -7183,7 +7235,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>158</v>
       </c>
@@ -7212,7 +7264,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>159</v>
       </c>
@@ -7241,7 +7293,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -7270,7 +7322,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -7299,7 +7351,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>162</v>
       </c>
@@ -7328,7 +7380,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>163</v>
       </c>
@@ -7357,7 +7409,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>164</v>
       </c>
@@ -7386,7 +7438,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>165</v>
       </c>
@@ -7415,7 +7467,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>166</v>
       </c>
@@ -7444,7 +7496,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>167</v>
       </c>
@@ -7473,7 +7525,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>168</v>
       </c>
@@ -7502,7 +7554,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>169</v>
       </c>
@@ -7531,7 +7583,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>170</v>
       </c>
@@ -7560,7 +7612,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>171</v>
       </c>
@@ -7589,7 +7641,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>172</v>
       </c>
@@ -7618,7 +7670,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>173</v>
       </c>
@@ -7647,7 +7699,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>174</v>
       </c>
@@ -7676,7 +7728,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>175</v>
       </c>
@@ -7705,7 +7757,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>176</v>
       </c>
@@ -7734,7 +7786,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>177</v>
       </c>
@@ -7763,7 +7815,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -7792,7 +7844,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>179</v>
       </c>
@@ -7821,7 +7873,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>180</v>
       </c>
@@ -7850,7 +7902,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>181</v>
       </c>
@@ -7879,7 +7931,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>182</v>
       </c>
@@ -7908,7 +7960,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>183</v>
       </c>
@@ -7937,7 +7989,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -7966,7 +8018,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>185</v>
       </c>
@@ -7995,7 +8047,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>186</v>
       </c>
@@ -8024,7 +8076,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>187</v>
       </c>
@@ -8053,7 +8105,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>188</v>
       </c>
@@ -8082,7 +8134,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>189</v>
       </c>
@@ -8111,7 +8163,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>190</v>
       </c>
@@ -8140,7 +8192,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>191</v>
       </c>
@@ -8169,7 +8221,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>192</v>
       </c>
@@ -8198,7 +8250,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>193</v>
       </c>
@@ -8227,7 +8279,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>194</v>
       </c>
@@ -8256,7 +8308,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>195</v>
       </c>
@@ -8285,7 +8337,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>196</v>
       </c>
@@ -8314,7 +8366,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>197</v>
       </c>
@@ -8343,7 +8395,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>198</v>
       </c>
@@ -8372,7 +8424,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>199</v>
       </c>
@@ -8401,7 +8453,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>200</v>
       </c>
@@ -8430,7 +8482,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>201</v>
       </c>
@@ -8459,7 +8511,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>202</v>
       </c>
@@ -8488,7 +8540,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>203</v>
       </c>
@@ -8517,7 +8569,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>204</v>
       </c>
@@ -8546,7 +8598,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>205</v>
       </c>
@@ -8575,7 +8627,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>206</v>
       </c>
@@ -8604,7 +8656,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>207</v>
       </c>
@@ -8633,7 +8685,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>208</v>
       </c>
@@ -8662,7 +8714,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -8691,7 +8743,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>210</v>
       </c>
@@ -8720,7 +8772,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>211</v>
       </c>
@@ -8749,7 +8801,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>212</v>
       </c>
@@ -8778,7 +8830,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>212</v>
       </c>
@@ -8807,7 +8859,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>212</v>
       </c>
@@ -8836,7 +8888,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>212</v>
       </c>
@@ -8865,7 +8917,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>213</v>
       </c>
@@ -8894,7 +8946,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>214</v>
       </c>
@@ -8923,7 +8975,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>215</v>
       </c>
@@ -8952,7 +9004,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>216</v>
       </c>
@@ -8981,7 +9033,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>217</v>
       </c>
@@ -9010,7 +9062,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>218</v>
       </c>
@@ -9039,7 +9091,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>219</v>
       </c>
@@ -9068,7 +9120,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>220</v>
       </c>
@@ -9097,7 +9149,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>221</v>
       </c>
@@ -9126,7 +9178,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>222</v>
       </c>
@@ -9155,7 +9207,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>223</v>
       </c>
@@ -9184,7 +9236,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>224</v>
       </c>
@@ -9213,7 +9265,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>225</v>
       </c>
@@ -9242,7 +9294,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>226</v>
       </c>
@@ -9271,7 +9323,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>227</v>
       </c>
@@ -9300,7 +9352,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>228</v>
       </c>
@@ -9329,7 +9381,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>229</v>
       </c>
@@ -9358,7 +9410,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>230</v>
       </c>
@@ -9387,7 +9439,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>231</v>
       </c>
@@ -9416,7 +9468,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -9445,7 +9497,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>233</v>
       </c>
@@ -9474,7 +9526,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>234</v>
       </c>
@@ -9503,7 +9555,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>235</v>
       </c>
@@ -9532,7 +9584,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>236</v>
       </c>
@@ -9561,7 +9613,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>237</v>
       </c>
@@ -9590,7 +9642,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>238</v>
       </c>
@@ -9619,7 +9671,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>239</v>
       </c>
@@ -9648,7 +9700,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>240</v>
       </c>
@@ -9677,7 +9729,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>241</v>
       </c>
@@ -9706,7 +9758,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>242</v>
       </c>
@@ -9735,7 +9787,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>243</v>
       </c>
@@ -9764,7 +9816,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>244</v>
       </c>
@@ -9793,7 +9845,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>245</v>
       </c>
@@ -9822,7 +9874,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>246</v>
       </c>
@@ -9851,7 +9903,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>247</v>
       </c>
@@ -9880,7 +9932,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>248</v>
       </c>
@@ -9909,7 +9961,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>249</v>
       </c>
@@ -9938,7 +9990,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>250</v>
       </c>
@@ -9967,7 +10019,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>251</v>
       </c>
@@ -9996,7 +10048,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>252</v>
       </c>
@@ -10025,7 +10077,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>253</v>
       </c>
@@ -10054,7 +10106,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>254</v>
       </c>
@@ -10083,7 +10135,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>255</v>
       </c>
@@ -10112,7 +10164,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>256</v>
       </c>
@@ -10141,7 +10193,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>257</v>
       </c>
@@ -10170,7 +10222,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>258</v>
       </c>
@@ -10199,7 +10251,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>258</v>
       </c>
@@ -10228,7 +10280,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>258</v>
       </c>
@@ -10257,7 +10309,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>258</v>
       </c>
@@ -10286,7 +10338,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>259</v>
       </c>
@@ -10315,7 +10367,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>260</v>
       </c>
@@ -10344,7 +10396,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>261</v>
       </c>
@@ -10373,7 +10425,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>262</v>
       </c>
@@ -10402,7 +10454,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -10431,7 +10483,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>264</v>
       </c>
@@ -10460,7 +10512,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>265</v>
       </c>
@@ -10489,7 +10541,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>266</v>
       </c>
@@ -10518,7 +10570,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -10547,7 +10599,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>268</v>
       </c>
@@ -10576,7 +10628,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>269</v>
       </c>
@@ -10605,7 +10657,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>270</v>
       </c>
@@ -10634,7 +10686,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>271</v>
       </c>
@@ -10663,7 +10715,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>272</v>
       </c>
@@ -10692,7 +10744,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>273</v>
       </c>
@@ -10721,7 +10773,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>274</v>
       </c>
@@ -10750,7 +10802,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>275</v>
       </c>
@@ -10779,7 +10831,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>276</v>
       </c>
@@ -10808,7 +10860,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>277</v>
       </c>
@@ -10837,7 +10889,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>278</v>
       </c>
@@ -10866,7 +10918,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>53</v>
       </c>
@@ -10895,7 +10947,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>53</v>
       </c>
@@ -10924,7 +10976,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>279</v>
       </c>
@@ -10953,7 +11005,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>280</v>
       </c>
@@ -10982,7 +11034,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>281</v>
       </c>
@@ -11011,7 +11063,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>282</v>
       </c>
@@ -11040,7 +11092,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>283</v>
       </c>
@@ -11069,7 +11121,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>284</v>
       </c>
@@ -11098,7 +11150,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>285</v>
       </c>
@@ -11127,7 +11179,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>286</v>
       </c>
@@ -11156,7 +11208,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>287</v>
       </c>
@@ -11185,7 +11237,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>288</v>
       </c>
@@ -11214,7 +11266,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>289</v>
       </c>
@@ -11243,7 +11295,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>290</v>
       </c>
@@ -11272,7 +11324,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>55</v>
       </c>
@@ -11301,7 +11353,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>55</v>
       </c>
@@ -11330,7 +11382,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>291</v>
       </c>
@@ -11361,319 +11413,319 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H13" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-    <hyperlink ref="H17" r:id="rId16"/>
-    <hyperlink ref="H18" r:id="rId17"/>
-    <hyperlink ref="H19" r:id="rId18"/>
-    <hyperlink ref="H20" r:id="rId19"/>
-    <hyperlink ref="H21" r:id="rId20"/>
-    <hyperlink ref="H22" r:id="rId21"/>
-    <hyperlink ref="H23" r:id="rId22"/>
-    <hyperlink ref="H24" r:id="rId23"/>
-    <hyperlink ref="H25" r:id="rId24"/>
-    <hyperlink ref="H26" r:id="rId25"/>
-    <hyperlink ref="H27" r:id="rId26"/>
-    <hyperlink ref="H28" r:id="rId27"/>
-    <hyperlink ref="H29" r:id="rId28"/>
-    <hyperlink ref="H30" r:id="rId29"/>
-    <hyperlink ref="H31" r:id="rId30"/>
-    <hyperlink ref="H32" r:id="rId31"/>
-    <hyperlink ref="H33" r:id="rId32"/>
-    <hyperlink ref="H34" r:id="rId33"/>
-    <hyperlink ref="H35" r:id="rId34"/>
-    <hyperlink ref="H36" r:id="rId35"/>
-    <hyperlink ref="H37" r:id="rId36"/>
-    <hyperlink ref="H38" r:id="rId37"/>
-    <hyperlink ref="H39" r:id="rId38"/>
-    <hyperlink ref="H40" r:id="rId39"/>
-    <hyperlink ref="H41" r:id="rId40"/>
-    <hyperlink ref="H42" r:id="rId41"/>
-    <hyperlink ref="H43" r:id="rId42"/>
-    <hyperlink ref="H44" r:id="rId43"/>
-    <hyperlink ref="H45" r:id="rId44"/>
-    <hyperlink ref="H46" r:id="rId45"/>
-    <hyperlink ref="H47" r:id="rId46"/>
-    <hyperlink ref="H48" r:id="rId47"/>
-    <hyperlink ref="H49" r:id="rId48"/>
-    <hyperlink ref="H50" r:id="rId49"/>
-    <hyperlink ref="H51" r:id="rId50"/>
-    <hyperlink ref="H52" r:id="rId51"/>
-    <hyperlink ref="H53" r:id="rId52"/>
-    <hyperlink ref="H54" r:id="rId53"/>
-    <hyperlink ref="H55" r:id="rId54"/>
-    <hyperlink ref="H56" r:id="rId55"/>
-    <hyperlink ref="H57" r:id="rId56"/>
-    <hyperlink ref="H58" r:id="rId57"/>
-    <hyperlink ref="H59" r:id="rId58"/>
-    <hyperlink ref="H60" r:id="rId59"/>
-    <hyperlink ref="H61" r:id="rId60"/>
-    <hyperlink ref="H62" r:id="rId61"/>
-    <hyperlink ref="H63" r:id="rId62"/>
-    <hyperlink ref="H64" r:id="rId63"/>
-    <hyperlink ref="H65" r:id="rId64"/>
-    <hyperlink ref="H66" r:id="rId65"/>
-    <hyperlink ref="H67" r:id="rId66"/>
-    <hyperlink ref="H68" r:id="rId67"/>
-    <hyperlink ref="H69" r:id="rId68"/>
-    <hyperlink ref="H70" r:id="rId69"/>
-    <hyperlink ref="H71" r:id="rId70"/>
-    <hyperlink ref="H72" r:id="rId71"/>
-    <hyperlink ref="H73" r:id="rId72"/>
-    <hyperlink ref="H74" r:id="rId73"/>
-    <hyperlink ref="H75" r:id="rId74"/>
-    <hyperlink ref="H76" r:id="rId75"/>
-    <hyperlink ref="H77" r:id="rId76"/>
-    <hyperlink ref="H78" r:id="rId77"/>
-    <hyperlink ref="H79" r:id="rId78"/>
-    <hyperlink ref="H80" r:id="rId79"/>
-    <hyperlink ref="H81" r:id="rId80"/>
-    <hyperlink ref="H82" r:id="rId81"/>
-    <hyperlink ref="H83" r:id="rId82"/>
-    <hyperlink ref="H84" r:id="rId83"/>
-    <hyperlink ref="H85" r:id="rId84"/>
-    <hyperlink ref="H86" r:id="rId85"/>
-    <hyperlink ref="H87" r:id="rId86"/>
-    <hyperlink ref="H88" r:id="rId87"/>
-    <hyperlink ref="H89" r:id="rId88"/>
-    <hyperlink ref="H90" r:id="rId89"/>
-    <hyperlink ref="H91" r:id="rId90"/>
-    <hyperlink ref="H92" r:id="rId91"/>
-    <hyperlink ref="H93" r:id="rId92"/>
-    <hyperlink ref="H94" r:id="rId93"/>
-    <hyperlink ref="H95" r:id="rId94"/>
-    <hyperlink ref="H96" r:id="rId95"/>
-    <hyperlink ref="H97" r:id="rId96"/>
-    <hyperlink ref="H98" r:id="rId97"/>
-    <hyperlink ref="H99" r:id="rId98"/>
-    <hyperlink ref="H100" r:id="rId99"/>
-    <hyperlink ref="H101" r:id="rId100"/>
-    <hyperlink ref="H102" r:id="rId101"/>
-    <hyperlink ref="H103" r:id="rId102"/>
-    <hyperlink ref="H104" r:id="rId103"/>
-    <hyperlink ref="H105" r:id="rId104"/>
-    <hyperlink ref="H106" r:id="rId105"/>
-    <hyperlink ref="H107" r:id="rId106"/>
-    <hyperlink ref="H108" r:id="rId107"/>
-    <hyperlink ref="H109" r:id="rId108"/>
-    <hyperlink ref="H110" r:id="rId109"/>
-    <hyperlink ref="H111" r:id="rId110"/>
-    <hyperlink ref="H112" r:id="rId111"/>
-    <hyperlink ref="H113" r:id="rId112"/>
-    <hyperlink ref="H114" r:id="rId113"/>
-    <hyperlink ref="H115" r:id="rId114"/>
-    <hyperlink ref="H116" r:id="rId115"/>
-    <hyperlink ref="H117" r:id="rId116"/>
-    <hyperlink ref="H118" r:id="rId117"/>
-    <hyperlink ref="H119" r:id="rId118"/>
-    <hyperlink ref="H120" r:id="rId119"/>
-    <hyperlink ref="H121" r:id="rId120"/>
-    <hyperlink ref="H122" r:id="rId121"/>
-    <hyperlink ref="H123" r:id="rId122"/>
-    <hyperlink ref="H124" r:id="rId123"/>
-    <hyperlink ref="H125" r:id="rId124"/>
-    <hyperlink ref="H126" r:id="rId125"/>
-    <hyperlink ref="H127" r:id="rId126"/>
-    <hyperlink ref="H128" r:id="rId127"/>
-    <hyperlink ref="H129" r:id="rId128"/>
-    <hyperlink ref="H130" r:id="rId129"/>
-    <hyperlink ref="H131" r:id="rId130"/>
-    <hyperlink ref="H132" r:id="rId131"/>
-    <hyperlink ref="H133" r:id="rId132"/>
-    <hyperlink ref="H134" r:id="rId133"/>
-    <hyperlink ref="H135" r:id="rId134"/>
-    <hyperlink ref="H136" r:id="rId135"/>
-    <hyperlink ref="H137" r:id="rId136"/>
-    <hyperlink ref="H138" r:id="rId137"/>
-    <hyperlink ref="H139" r:id="rId138"/>
-    <hyperlink ref="H140" r:id="rId139"/>
-    <hyperlink ref="H141" r:id="rId140"/>
-    <hyperlink ref="H142" r:id="rId141"/>
-    <hyperlink ref="H143" r:id="rId142"/>
-    <hyperlink ref="H144" r:id="rId143"/>
-    <hyperlink ref="H145" r:id="rId144"/>
-    <hyperlink ref="H146" r:id="rId145"/>
-    <hyperlink ref="H147" r:id="rId146"/>
-    <hyperlink ref="H148" r:id="rId147"/>
-    <hyperlink ref="H149" r:id="rId148"/>
-    <hyperlink ref="H150" r:id="rId149"/>
-    <hyperlink ref="H151" r:id="rId150"/>
-    <hyperlink ref="H152" r:id="rId151"/>
-    <hyperlink ref="H153" r:id="rId152"/>
-    <hyperlink ref="H154" r:id="rId153"/>
-    <hyperlink ref="H155" r:id="rId154"/>
-    <hyperlink ref="H156" r:id="rId155"/>
-    <hyperlink ref="H157" r:id="rId156"/>
-    <hyperlink ref="H158" r:id="rId157"/>
-    <hyperlink ref="H159" r:id="rId158"/>
-    <hyperlink ref="H160" r:id="rId159"/>
-    <hyperlink ref="H161" r:id="rId160"/>
-    <hyperlink ref="H162" r:id="rId161"/>
-    <hyperlink ref="H163" r:id="rId162"/>
-    <hyperlink ref="H164" r:id="rId163"/>
-    <hyperlink ref="H165" r:id="rId164"/>
-    <hyperlink ref="H166" r:id="rId165"/>
-    <hyperlink ref="H167" r:id="rId166"/>
-    <hyperlink ref="H168" r:id="rId167"/>
-    <hyperlink ref="H169" r:id="rId168"/>
-    <hyperlink ref="H170" r:id="rId169"/>
-    <hyperlink ref="H171" r:id="rId170"/>
-    <hyperlink ref="H172" r:id="rId171"/>
-    <hyperlink ref="H173" r:id="rId172"/>
-    <hyperlink ref="H174" r:id="rId173"/>
-    <hyperlink ref="H175" r:id="rId174"/>
-    <hyperlink ref="H176" r:id="rId175"/>
-    <hyperlink ref="H177" r:id="rId176"/>
-    <hyperlink ref="H178" r:id="rId177"/>
-    <hyperlink ref="H179" r:id="rId178"/>
-    <hyperlink ref="H180" r:id="rId179"/>
-    <hyperlink ref="H181" r:id="rId180"/>
-    <hyperlink ref="H182" r:id="rId181"/>
-    <hyperlink ref="H183" r:id="rId182"/>
-    <hyperlink ref="H184" r:id="rId183"/>
-    <hyperlink ref="H185" r:id="rId184"/>
-    <hyperlink ref="H186" r:id="rId185"/>
-    <hyperlink ref="H187" r:id="rId186"/>
-    <hyperlink ref="H188" r:id="rId187"/>
-    <hyperlink ref="H189" r:id="rId188"/>
-    <hyperlink ref="H190" r:id="rId189"/>
-    <hyperlink ref="H191" r:id="rId190"/>
-    <hyperlink ref="H192" r:id="rId191"/>
-    <hyperlink ref="H193" r:id="rId192"/>
-    <hyperlink ref="H194" r:id="rId193"/>
-    <hyperlink ref="H195" r:id="rId194"/>
-    <hyperlink ref="H196" r:id="rId195"/>
-    <hyperlink ref="H197" r:id="rId196"/>
-    <hyperlink ref="H198" r:id="rId197"/>
-    <hyperlink ref="H199" r:id="rId198"/>
-    <hyperlink ref="H200" r:id="rId199"/>
-    <hyperlink ref="H201" r:id="rId200"/>
-    <hyperlink ref="H202" r:id="rId201"/>
-    <hyperlink ref="H203" r:id="rId202"/>
-    <hyperlink ref="H204" r:id="rId203"/>
-    <hyperlink ref="H205" r:id="rId204"/>
-    <hyperlink ref="H206" r:id="rId205"/>
-    <hyperlink ref="H207" r:id="rId206"/>
-    <hyperlink ref="H208" r:id="rId207"/>
-    <hyperlink ref="H209" r:id="rId208"/>
-    <hyperlink ref="H210" r:id="rId209"/>
-    <hyperlink ref="H211" r:id="rId210"/>
-    <hyperlink ref="H212" r:id="rId211"/>
-    <hyperlink ref="H213" r:id="rId212"/>
-    <hyperlink ref="H214" r:id="rId213"/>
-    <hyperlink ref="H215" r:id="rId214"/>
-    <hyperlink ref="H216" r:id="rId215"/>
-    <hyperlink ref="H217" r:id="rId216"/>
-    <hyperlink ref="H218" r:id="rId217"/>
-    <hyperlink ref="H219" r:id="rId218"/>
-    <hyperlink ref="H220" r:id="rId219"/>
-    <hyperlink ref="H221" r:id="rId220"/>
-    <hyperlink ref="H222" r:id="rId221"/>
-    <hyperlink ref="H223" r:id="rId222"/>
-    <hyperlink ref="H224" r:id="rId223"/>
-    <hyperlink ref="H225" r:id="rId224"/>
-    <hyperlink ref="H226" r:id="rId225"/>
-    <hyperlink ref="H227" r:id="rId226"/>
-    <hyperlink ref="H228" r:id="rId227"/>
-    <hyperlink ref="H229" r:id="rId228"/>
-    <hyperlink ref="H230" r:id="rId229"/>
-    <hyperlink ref="H231" r:id="rId230"/>
-    <hyperlink ref="H232" r:id="rId231"/>
-    <hyperlink ref="H233" r:id="rId232"/>
-    <hyperlink ref="H234" r:id="rId233"/>
-    <hyperlink ref="H235" r:id="rId234"/>
-    <hyperlink ref="H236" r:id="rId235"/>
-    <hyperlink ref="H237" r:id="rId236"/>
-    <hyperlink ref="H238" r:id="rId237"/>
-    <hyperlink ref="H239" r:id="rId238"/>
-    <hyperlink ref="H240" r:id="rId239"/>
-    <hyperlink ref="H241" r:id="rId240"/>
-    <hyperlink ref="H242" r:id="rId241"/>
-    <hyperlink ref="H243" r:id="rId242"/>
-    <hyperlink ref="H244" r:id="rId243"/>
-    <hyperlink ref="H245" r:id="rId244"/>
-    <hyperlink ref="H246" r:id="rId245"/>
-    <hyperlink ref="H247" r:id="rId246"/>
-    <hyperlink ref="H248" r:id="rId247"/>
-    <hyperlink ref="H249" r:id="rId248"/>
-    <hyperlink ref="H250" r:id="rId249"/>
-    <hyperlink ref="H251" r:id="rId250"/>
-    <hyperlink ref="H252" r:id="rId251"/>
-    <hyperlink ref="H253" r:id="rId252"/>
-    <hyperlink ref="H254" r:id="rId253"/>
-    <hyperlink ref="H255" r:id="rId254"/>
-    <hyperlink ref="H256" r:id="rId255"/>
-    <hyperlink ref="H257" r:id="rId256"/>
-    <hyperlink ref="H258" r:id="rId257"/>
-    <hyperlink ref="H259" r:id="rId258"/>
-    <hyperlink ref="H260" r:id="rId259"/>
-    <hyperlink ref="H261" r:id="rId260"/>
-    <hyperlink ref="H262" r:id="rId261"/>
-    <hyperlink ref="H263" r:id="rId262"/>
-    <hyperlink ref="H264" r:id="rId263"/>
-    <hyperlink ref="H265" r:id="rId264"/>
-    <hyperlink ref="H266" r:id="rId265"/>
-    <hyperlink ref="H267" r:id="rId266"/>
-    <hyperlink ref="H268" r:id="rId267"/>
-    <hyperlink ref="H269" r:id="rId268"/>
-    <hyperlink ref="H270" r:id="rId269"/>
-    <hyperlink ref="H271" r:id="rId270"/>
-    <hyperlink ref="H272" r:id="rId271"/>
-    <hyperlink ref="H273" r:id="rId272"/>
-    <hyperlink ref="H274" r:id="rId273"/>
-    <hyperlink ref="H275" r:id="rId274"/>
-    <hyperlink ref="H276" r:id="rId275"/>
-    <hyperlink ref="H277" r:id="rId276"/>
-    <hyperlink ref="H278" r:id="rId277"/>
-    <hyperlink ref="H279" r:id="rId278"/>
-    <hyperlink ref="H280" r:id="rId279"/>
-    <hyperlink ref="H281" r:id="rId280"/>
-    <hyperlink ref="H282" r:id="rId281"/>
-    <hyperlink ref="H283" r:id="rId282"/>
-    <hyperlink ref="H284" r:id="rId283"/>
-    <hyperlink ref="H285" r:id="rId284"/>
-    <hyperlink ref="H286" r:id="rId285"/>
-    <hyperlink ref="H287" r:id="rId286"/>
-    <hyperlink ref="H288" r:id="rId287"/>
-    <hyperlink ref="H289" r:id="rId288"/>
-    <hyperlink ref="H290" r:id="rId289"/>
-    <hyperlink ref="H291" r:id="rId290"/>
-    <hyperlink ref="H292" r:id="rId291"/>
-    <hyperlink ref="H293" r:id="rId292"/>
-    <hyperlink ref="H294" r:id="rId293"/>
-    <hyperlink ref="H295" r:id="rId294"/>
-    <hyperlink ref="H296" r:id="rId295"/>
-    <hyperlink ref="H297" r:id="rId296"/>
-    <hyperlink ref="H298" r:id="rId297"/>
-    <hyperlink ref="H299" r:id="rId298"/>
-    <hyperlink ref="H300" r:id="rId299"/>
-    <hyperlink ref="H301" r:id="rId300"/>
-    <hyperlink ref="H302" r:id="rId301"/>
-    <hyperlink ref="H303" r:id="rId302"/>
-    <hyperlink ref="H304" r:id="rId303"/>
-    <hyperlink ref="H305" r:id="rId304"/>
-    <hyperlink ref="H306" r:id="rId305"/>
-    <hyperlink ref="H307" r:id="rId306"/>
-    <hyperlink ref="H308" r:id="rId307"/>
-    <hyperlink ref="H309" r:id="rId308"/>
-    <hyperlink ref="H310" r:id="rId309"/>
-    <hyperlink ref="H311" r:id="rId310"/>
-    <hyperlink ref="H312" r:id="rId311"/>
-    <hyperlink ref="H313" r:id="rId312"/>
-    <hyperlink ref="H314" r:id="rId313"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="H90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="H96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="H103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="H114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="H115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="H120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="H121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="H122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="H123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="H124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="H125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="H126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="H127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="H128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="H129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="H130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="H131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="H132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="H133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="H135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="H136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="H137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="H138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="H139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="H140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="H141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="H142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="H143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="H144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="H145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="H146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="H147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="H148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="H149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="H150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="H153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="H154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="H155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="H156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="H157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="H158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="H159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="H160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="H161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="H162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="H163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="H164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="H165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="H166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="H167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="H168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="H169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="H170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="H171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="H172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="H173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="H174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="H175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="H176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="H177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="H178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="H179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="H180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="H181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="H182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="H183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="H184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="H185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="H186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="H187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="H188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="H189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="H190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="H191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="H192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="H193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="H194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="H195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="H196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="H197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="H198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="H199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="H200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="H201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="H202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="H203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="H204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="H205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="H206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="H207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="H208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="H209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="H210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="H211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="H212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="H213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="H214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="H215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="H216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="H217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="H218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="H219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="H220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="H221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="H222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="H223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="H224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="H225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="H226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="H227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="H228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="H229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="H230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="H231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="H232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="H233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="H234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="H236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="H237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="H238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="H239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="H240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="H241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="H242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="H243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="H244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="H246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="H247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="H248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="H249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="H250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="H251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="H252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="H253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="H254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="H255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="H256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="H257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="H258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="H259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="H260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="H261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="H262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="H263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="H264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="H265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="H266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="H267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="H268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="H269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="H270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="H271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="H272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="H273" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="H274" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="H275" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="H276" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="H277" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="H278" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="H279" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="H280" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="H281" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="H282" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="H283" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="H284" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="H285" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="H286" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="H287" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="H288" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="H289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="H290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="H291" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="H292" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="H293" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="H294" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="H295" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="H296" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="H297" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="H298" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="H299" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="H300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="H301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="H302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="H303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="H304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="H305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="H306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="H307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="H308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="H309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="H310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="H311" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="H312" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="H313" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="H314" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
